--- a/QA A.Irshenko portfolio api test scenarios.xlsx
+++ b/QA A.Irshenko portfolio api test scenarios.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9455" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9264" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="List Values" sheetId="2" r:id="rId1"/>
     <sheet name="API_1" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">API_1!$B$2:$I$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">API_1!$B$1:$I$76</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -23,7 +23,7 @@
     <author>alexa</author>
   </authors>
   <commentList>
-    <comment ref="E6" authorId="0">
+    <comment ref="E5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0">
+    <comment ref="G6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="176">
   <si>
     <t>Preparation</t>
   </si>
@@ -118,34 +118,29 @@
     <t>Extended</t>
   </si>
   <si>
-    <t>#</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Functional Area 
+(module)</t>
+  </si>
+  <si>
+    <t>Scenario Summary</t>
+  </si>
+  <si>
+    <t>Detailed steps</t>
+  </si>
+  <si>
+    <t>Expected results</t>
+  </si>
+  <si>
+    <t>Request body</t>
+  </si>
+  <si>
+    <t>Response body</t>
   </si>
   <si>
     <t xml:space="preserve">Test Status per Version / Build </t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Functional Area (module)</t>
-  </si>
-  <si>
-    <t>Scenario Summary</t>
-  </si>
-  <si>
-    <t>Detailed steps</t>
-  </si>
-  <si>
-    <t>Expected results</t>
-  </si>
-  <si>
-    <t>Request body</t>
-  </si>
-  <si>
-    <t>Response body</t>
-  </si>
-  <si>
-    <t>v-1</t>
   </si>
   <si>
     <t>EMP_01</t>
@@ -1399,14 +1394,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1434,31 +1429,10 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color theme="7"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1473,6 +1447,68 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1494,26 +1530,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1532,30 +1552,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -1564,29 +1560,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1603,7 +1591,7 @@
       <charset val="0"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1612,13 +1600,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
+        <fgColor theme="8" tint="-0.5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.499984740745262"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1630,19 +1720,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1660,79 +1780,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1742,103 +1790,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1848,19 +1806,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1895,6 +1840,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1905,6 +1883,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1927,23 +1920,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1958,209 +1936,185 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2168,110 +2122,86 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -2324,7 +2254,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Matrix" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Matrix" pivot="0" count="0"/>
+    <tableStyle name="Matrix" pivot="0" count="0" xr9:uid="{68CD757A-94F1-4B81-A63F-E73E541A6EA6}"/>
   </tableStyles>
   <colors>
     <mruColors>
@@ -2611,7 +2541,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2641,7 +2571,7 @@
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="23" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2666,7 +2596,7 @@
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="23" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2694,23 +2624,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="11.4"/>
   <cols>
     <col min="1" max="1" width="8.77777777777778" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.7777777777778" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="15.7777777777778" style="2" customWidth="1"/>
     <col min="3" max="3" width="50.7777777777778" style="2" customWidth="1"/>
     <col min="4" max="4" width="20.7777777777778" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25.7777777777778" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="15.7777777777778" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="55.7777777777778" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="55.7777777777778" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.7777777777778" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="25.7777777777778" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.7777777777778" style="2" customWidth="1"/>
+    <col min="7" max="8" width="55.7777777777778" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.7777777777778" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9.13888888888889" style="2"/>
   </cols>
   <sheetData>
@@ -2718,1856 +2647,1841 @@
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="26" t="s">
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
-      <c r="A2" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
+      <c r="G1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="H1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="I1" s="4" t="s">
         <v>21</v>
       </c>
+    </row>
+    <row r="2" ht="35" customHeight="1" spans="1:9">
+      <c r="A2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="H2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="35" customHeight="1" spans="1:9">
+      <c r="A3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" ht="35" customHeight="1" spans="1:9">
-      <c r="A3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="8" t="s">
+      <c r="H3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="35" customHeight="1" spans="1:9">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="8" t="s">
+      <c r="E4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" ht="35" customHeight="1" spans="1:9">
+      <c r="A5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:9">
+      <c r="A6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="35" customHeight="1" spans="1:9">
-      <c r="A5" s="8" t="s">
+    <row r="7" ht="15" customHeight="1" spans="1:9">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:9">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:9">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1" spans="1:9">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" spans="1:9">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1" spans="1:9">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1" spans="1:9">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1" spans="1:9">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1" spans="1:9">
+      <c r="A15" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1" spans="1:9">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="1:9">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1" spans="1:9">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1" spans="1:9">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1" spans="1:9">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1" spans="1:9">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1" spans="1:9">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1" spans="1:9">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1" spans="1:9">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1" spans="1:9">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1" spans="1:9">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1" spans="1:9">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1" spans="1:9">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1" spans="1:9">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1" spans="1:9">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1" spans="1:9">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" ht="15" customHeight="1" spans="1:9">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" ht="15" customHeight="1" spans="1:9">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" ht="15" customHeight="1" spans="1:9">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" ht="15" customHeight="1" spans="1:9">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" ht="15" customHeight="1" spans="1:9">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" ht="15" customHeight="1" spans="1:9">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" ht="15" customHeight="1" spans="1:9">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" ht="15" customHeight="1" spans="1:9">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" ht="35" customHeight="1" spans="1:9">
+      <c r="A40" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" ht="35" customHeight="1" spans="1:9">
+      <c r="A41" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" ht="35" customHeight="1" spans="1:9">
+      <c r="A42" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" ht="15" customHeight="1" spans="1:9">
+      <c r="A43" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" ht="15" customHeight="1" spans="1:9">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" ht="15" customHeight="1" spans="1:9">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" ht="15" customHeight="1" spans="1:9">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" ht="15" customHeight="1" spans="1:9">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" ht="15" customHeight="1" spans="1:9">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" ht="15" customHeight="1" spans="1:9">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" ht="15" customHeight="1" spans="1:9">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" ht="15" customHeight="1" spans="1:9">
+      <c r="A51" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" ht="15" customHeight="1" spans="1:9">
+      <c r="A52" s="11"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" ht="15" customHeight="1" spans="1:9">
+      <c r="A53" s="11"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" ht="15" customHeight="1" spans="1:9">
+      <c r="A54" s="11"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" ht="15" customHeight="1" spans="1:9">
+      <c r="A55" s="11"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" ht="15" customHeight="1" spans="1:9">
+      <c r="A56" s="11"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" ht="15" customHeight="1" spans="1:9">
+      <c r="A57" s="11"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" ht="15" customHeight="1" spans="1:9">
+      <c r="A58" s="11"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" ht="15" customHeight="1" spans="1:9">
+      <c r="A59" s="11"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" ht="15" customHeight="1" spans="1:9">
+      <c r="A60" s="11"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" ht="15" customHeight="1" spans="1:9">
+      <c r="A61" s="11"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" ht="15" customHeight="1" spans="1:9">
+      <c r="A62" s="11"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" ht="15" customHeight="1" spans="1:9">
+      <c r="A63" s="11"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" ht="15" customHeight="1" spans="1:9">
+      <c r="A64" s="11"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" ht="15" customHeight="1" spans="1:9">
+      <c r="A65" s="11"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" ht="15" customHeight="1" spans="1:9">
+      <c r="A66" s="11"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" ht="15" customHeight="1" spans="1:9">
+      <c r="A67" s="11"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" ht="15" customHeight="1" spans="1:9">
+      <c r="A68" s="11"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" ht="15" customHeight="1" spans="1:9">
+      <c r="A69" s="11"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" ht="15" customHeight="1" spans="1:9">
+      <c r="A70" s="11"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" ht="15" customHeight="1" spans="1:9">
+      <c r="A71" s="11"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" ht="15" customHeight="1" spans="1:9">
+      <c r="A72" s="11"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" ht="15" customHeight="1" spans="1:9">
+      <c r="A73" s="11"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" ht="15" customHeight="1" spans="1:9">
+      <c r="A74" s="11"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" ht="15" customHeight="1" spans="1:9">
+      <c r="A75" s="11"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" ht="35" customHeight="1" spans="1:9">
+      <c r="A76" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" ht="35" customHeight="1" spans="1:9">
+      <c r="A77" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E77" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="F77" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" ht="35" customHeight="1" spans="1:9">
-      <c r="A6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="G77" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" ht="35" customHeight="1" spans="1:9">
+      <c r="A78" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F78" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1" spans="1:9">
-      <c r="A7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1" spans="1:9">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1" spans="1:9">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1" spans="1:9">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1" spans="1:9">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1" spans="1:9">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1" spans="1:9">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1" spans="1:9">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1" spans="1:9">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1" spans="1:9">
-      <c r="A16" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1" spans="1:9">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1" spans="1:9">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1" spans="1:9">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1" spans="1:9">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1" spans="1:9">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1" spans="1:9">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1" spans="1:9">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1" spans="1:9">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1" spans="1:9">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1" spans="1:9">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1" spans="1:9">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1" spans="1:9">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1" spans="1:9">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1" spans="1:9">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1" spans="1:9">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" ht="15" customHeight="1" spans="1:9">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" ht="15" customHeight="1" spans="1:9">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" ht="15" customHeight="1" spans="1:9">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" ht="15" customHeight="1" spans="1:9">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" ht="15" customHeight="1" spans="1:9">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" ht="15" customHeight="1" spans="1:9">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" ht="15" customHeight="1" spans="1:9">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" ht="15" customHeight="1" spans="1:9">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" ht="15" customHeight="1" spans="1:9">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" ht="35" customHeight="1" spans="1:9">
-      <c r="A41" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" ht="35" customHeight="1" spans="1:9">
-      <c r="A42" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" ht="35" customHeight="1" spans="1:9">
-      <c r="A43" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" ht="15" customHeight="1" spans="1:9">
-      <c r="A44" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G44" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" ht="15" customHeight="1" spans="1:9">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" ht="15" customHeight="1" spans="1:9">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" ht="15" customHeight="1" spans="1:9">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" ht="15" customHeight="1" spans="1:9">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" ht="15" customHeight="1" spans="1:9">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" ht="15" customHeight="1" spans="1:9">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" ht="15" customHeight="1" spans="1:9">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="I51" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" ht="15" customHeight="1" spans="1:9">
-      <c r="A52" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="E52" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G52" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" ht="15" customHeight="1" spans="1:9">
-      <c r="A53" s="14"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H53" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="I53" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" ht="15" customHeight="1" spans="1:9">
-      <c r="A54" s="14"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="I54" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" ht="15" customHeight="1" spans="1:9">
-      <c r="A55" s="14"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="I55" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" ht="15" customHeight="1" spans="1:9">
-      <c r="A56" s="14"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="I56" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" ht="15" customHeight="1" spans="1:9">
-      <c r="A57" s="14"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="H57" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="I57" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" ht="15" customHeight="1" spans="1:9">
-      <c r="A58" s="14"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="H58" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="I58" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" ht="15" customHeight="1" spans="1:9">
-      <c r="A59" s="14"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="H59" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="I59" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" ht="15" customHeight="1" spans="1:9">
-      <c r="A60" s="14"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="H60" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="I60" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" ht="15" customHeight="1" spans="1:9">
-      <c r="A61" s="14"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="H61" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="I61" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" ht="15" customHeight="1" spans="1:9">
-      <c r="A62" s="14"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="H62" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="I62" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" ht="15" customHeight="1" spans="1:9">
-      <c r="A63" s="14"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="H63" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="I63" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" ht="15" customHeight="1" spans="1:9">
-      <c r="A64" s="14"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="H64" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="I64" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" ht="15" customHeight="1" spans="1:9">
-      <c r="A65" s="14"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="H65" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="I65" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" ht="15" customHeight="1" spans="1:9">
-      <c r="A66" s="14"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="H66" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="I66" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" ht="15" customHeight="1" spans="1:9">
-      <c r="A67" s="14"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="H67" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="I67" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" ht="15" customHeight="1" spans="1:9">
-      <c r="A68" s="14"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="H68" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="I68" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" ht="15" customHeight="1" spans="1:9">
-      <c r="A69" s="14"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="H69" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="I69" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" ht="15" customHeight="1" spans="1:9">
-      <c r="A70" s="14"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="H70" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="I70" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" ht="15" customHeight="1" spans="1:9">
-      <c r="A71" s="14"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="H71" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="I71" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" ht="15" customHeight="1" spans="1:9">
-      <c r="A72" s="14"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="H72" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="I72" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" ht="15" customHeight="1" spans="1:9">
-      <c r="A73" s="14"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="H73" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="I73" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" ht="15" customHeight="1" spans="1:9">
-      <c r="A74" s="14"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="H74" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="I74" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" ht="15" customHeight="1" spans="1:9">
-      <c r="A75" s="14"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="H75" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="I75" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" ht="15" customHeight="1" spans="1:9">
-      <c r="A76" s="14"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="H76" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="I76" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" ht="35" customHeight="1" spans="1:9">
-      <c r="A77" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G77" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H77" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="I77" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" ht="35" customHeight="1" spans="1:9">
-      <c r="A78" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G78" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H78" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="I78" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" ht="35" customHeight="1" spans="1:9">
-      <c r="A79" s="8" t="s">
+      <c r="G78" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H78" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B79" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H79" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="I79" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="I78" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="8"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="8"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="8"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="8"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="8"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="8"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="8"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="8"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="8"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="8"/>
-      <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="8"/>
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="8"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="8"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="8"/>
-      <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8"/>
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="8"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="8"/>
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8"/>
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="8"/>
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8"/>
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="8"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8"/>
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="8"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8"/>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="8"/>
-      <c r="B102" s="8"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="8"/>
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="A16:A40"/>
-    <mergeCell ref="A44:A51"/>
-    <mergeCell ref="A52:A76"/>
-    <mergeCell ref="B7:B15"/>
-    <mergeCell ref="B16:B40"/>
-    <mergeCell ref="B44:B51"/>
-    <mergeCell ref="B52:B76"/>
-    <mergeCell ref="C7:C15"/>
-    <mergeCell ref="C16:C40"/>
-    <mergeCell ref="C44:C51"/>
-    <mergeCell ref="C52:C76"/>
-    <mergeCell ref="D7:D15"/>
-    <mergeCell ref="D16:D40"/>
-    <mergeCell ref="D44:D51"/>
-    <mergeCell ref="D52:D76"/>
-    <mergeCell ref="E7:E15"/>
-    <mergeCell ref="E16:E40"/>
-    <mergeCell ref="E44:E51"/>
-    <mergeCell ref="E52:E76"/>
-    <mergeCell ref="F7:F15"/>
-    <mergeCell ref="F16:F40"/>
-    <mergeCell ref="F44:F51"/>
-    <mergeCell ref="F52:F76"/>
+    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="A15:A39"/>
+    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="A51:A75"/>
+    <mergeCell ref="B6:B14"/>
+    <mergeCell ref="B15:B39"/>
+    <mergeCell ref="B43:B50"/>
+    <mergeCell ref="B51:B75"/>
+    <mergeCell ref="C6:C14"/>
+    <mergeCell ref="C15:C39"/>
+    <mergeCell ref="C43:C50"/>
+    <mergeCell ref="C51:C75"/>
+    <mergeCell ref="D6:D14"/>
+    <mergeCell ref="D15:D39"/>
+    <mergeCell ref="D43:D50"/>
+    <mergeCell ref="D51:D75"/>
+    <mergeCell ref="E6:E14"/>
+    <mergeCell ref="E15:E39"/>
+    <mergeCell ref="E43:E50"/>
+    <mergeCell ref="E51:E75"/>
+    <mergeCell ref="F6:F14"/>
+    <mergeCell ref="F15:F39"/>
+    <mergeCell ref="F43:F50"/>
+    <mergeCell ref="F51:F75"/>
   </mergeCells>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D43">
     <cfRule type="containsText" dxfId="0" priority="3" operator="between" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",D44)))</formula>
+      <formula>NOT(ISERROR(SEARCH("N/A",D43)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
+  <conditionalFormatting sqref="E51">
     <cfRule type="containsText" dxfId="0" priority="6" operator="between" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",E52)))</formula>
+      <formula>NOT(ISERROR(SEARCH("N/A",E51)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G44:G51">
+  <conditionalFormatting sqref="G43:G50">
     <cfRule type="containsText" dxfId="0" priority="2" operator="between" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",G44)))</formula>
+      <formula>NOT(ISERROR(SEARCH("N/A",G43)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G52:G65">
+  <conditionalFormatting sqref="G51:G64">
     <cfRule type="containsText" dxfId="0" priority="4" operator="between" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",G52)))</formula>
+      <formula>NOT(ISERROR(SEARCH("N/A",G51)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G66:G76">
+  <conditionalFormatting sqref="G65:G75">
     <cfRule type="containsText" dxfId="0" priority="1" operator="between" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",G66)))</formula>
+      <formula>NOT(ISERROR(SEARCH("N/A",G65)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I102">
+  <conditionalFormatting sqref="I2:I101">
     <cfRule type="containsText" dxfId="1" priority="14" operator="between" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",I3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",I2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="15" operator="between" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",I3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",I2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="16" operator="between" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",I3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Not Started",I2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="17" operator="between" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",I3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Blocked",I2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="5" priority="18" operator="between" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",I3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("In Progress",I2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="19" operator="between" text="Ready">
-      <formula>NOT(ISERROR(SEARCH("Ready",I3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Ready",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41:I76">
+  <conditionalFormatting sqref="I40:I75">
     <cfRule type="containsText" dxfId="0" priority="5" operator="between" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",I41)))</formula>
+      <formula>NOT(ISERROR(SEARCH("N/A",I40)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1 A2:I7 G8:I15 A16:I16 G17:I40 A41:H43 A44:C44 E44:F44 H44:H76 F52 A52:D52 B103:I1048576 A77:I102">
+  <conditionalFormatting sqref="A76:I101 B102:I1048576 A51:D51 F51 H43:H75 E43:F43 A43:C43 A40:H42 G16:I39 A15:I15 G7:I14 A1:I6">
     <cfRule type="containsText" dxfId="0" priority="34" operator="between" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I9 I10 I11 I12 I16 I30 I41 I42 I43 I3:I7 I13:I15 I17:I29 I31:I40 I44:I47 I48:I51 I52:I64 I65:I76 I77:I79 I80:I102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7 I8 I9 I10 I11 I15 I29 I40 I41 I42 I2:I6 I12:I14 I16:I28 I30:I39 I43:I46 I47:I50 I51:I63 I64:I75 I76:I78 I79:I101">
       <formula1>'List Values'!$A$9:$A$12</formula1>
     </dataValidation>
   </dataValidations>
